--- a/data/income_statement/1digit/size/S_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/S_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>S-Other services activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>S-Other services activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>356083.92591</v>
+        <v>326989.92311</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>362268.78973</v>
+        <v>344976.22246</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>454136.8122</v>
+        <v>428172.98833</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>487795.6756</v>
+        <v>450136.4134</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>458546.23759</v>
+        <v>450195.88024</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>585583.80518</v>
+        <v>586271.09468</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>725139.591</v>
+        <v>755353.01344</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>757903.9413099999</v>
+        <v>731747.44515</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>952092.97777</v>
+        <v>967847.4832799999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>827780.3553099999</v>
+        <v>794417.1690399999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1254929.94421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1223535.35597</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1203661.51</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>308587.08597</v>
+        <v>283533.11142</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>312710.4365900001</v>
+        <v>297859.9383600001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>381346.18441</v>
+        <v>358555.7882299999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>403034.28806</v>
+        <v>366044.54773</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>413259.25862</v>
+        <v>411355.11776</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>513838.98535</v>
+        <v>520270.91191</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>630539.14748</v>
+        <v>676122.94675</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>670774.4061200001</v>
+        <v>653015.82547</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>851250.26981</v>
+        <v>876852.11564</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>716621.07973</v>
+        <v>684338.12048</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1145051.39973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1112288.53954</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1067728.795</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>16986.62441</v>
+        <v>16597.63035</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>21960.74325</v>
@@ -1040,190 +956,215 @@
         <v>46728.66016000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>17363.95673</v>
+        <v>14322.77724</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>30971.86501</v>
+        <v>27289.21637</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>26768.02759</v>
+        <v>14163.11228</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>20233.30088</v>
+        <v>16494.91514</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>31563.05428</v>
+        <v>20777.82173</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>36336.85332</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>17322.63616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>20170.67039</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>45567.539</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>30510.21553</v>
+        <v>26859.18134</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>27597.60989</v>
+        <v>25155.54085</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>36485.65918</v>
+        <v>33312.23149000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>38032.72738</v>
+        <v>37363.20551</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>27923.02224</v>
+        <v>24517.98524</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>40772.95482</v>
+        <v>38710.9664</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>67832.41592999999</v>
+        <v>65066.95441</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>66896.23431</v>
+        <v>62236.70454</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>69279.65368</v>
+        <v>70217.54591000002</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>74822.42226000001</v>
+        <v>73742.19524</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>92555.90831999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>91076.14603999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>90365.17600000001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6423.28181</v>
+        <v>6349.10118</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3304.70615</v>
+        <v>3270.89995</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3648.6999</v>
+        <v>3632.5561</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4413.784070000001</v>
+        <v>3060.622679999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>10199.97384</v>
+        <v>9224.70247</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2917.3842</v>
+        <v>2809.01007</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9488.704710000002</v>
+        <v>2949.22766</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4836.233090000001</v>
+        <v>4657.92855</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>9572.989280000002</v>
+        <v>10495.8919</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>8692.34568</v>
+        <v>7978.020390000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>11156.01962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>10833.52265</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>9648.495000000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1674.78312</v>
+        <v>1604.10588</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1600.30211</v>
+        <v>1566.49591</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2279.10254</v>
+        <v>2272.788599999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2976.71099</v>
+        <v>2180.95609</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8650.90646</v>
+        <v>7713.76376</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2107.68368</v>
+        <v>2009.68543</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9086.86346</v>
+        <v>2546.36157</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3480.42084</v>
+        <v>3319.92904</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>8009.69674</v>
+        <v>8823.085779999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>7142.78076</v>
+        <v>6428.45547</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>8769.79983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8416.389529999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>6735.769</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4222.094639999999</v>
+        <v>4220.858969999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>1261.30031</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1223.61179</v>
+        <v>1213.78193</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>993.0068100000001</v>
+        <v>656.46143</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1409.68006</v>
+        <v>1376.98221</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>749.66475</v>
+        <v>744.44475</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>335.57148</v>
+        <v>335.14574</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1076.00477</v>
+        <v>1058.86114</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1397.37471</v>
+        <v>1508.00936</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>1420.61136</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>612.74075</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>623.80866</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>216.065</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>526.4040500000001</v>
+        <v>524.13633</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>443.10373</v>
@@ -1232,256 +1173,286 @@
         <v>145.98557</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>444.06627</v>
+        <v>223.20516</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>139.38732</v>
+        <v>133.9565</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>60.03577000000001</v>
+        <v>54.87989</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>66.26977000000001</v>
+        <v>67.72035000000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>279.80748</v>
+        <v>279.13837</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>165.91783</v>
+        <v>164.79676</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>128.95356</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1773.47904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1793.32446</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2696.661</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>349660.6441</v>
+        <v>320640.82193</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>358964.08358</v>
+        <v>341705.32251</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>450488.1123</v>
+        <v>424540.43223</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>483381.89153</v>
+        <v>447075.79072</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>448346.26375</v>
+        <v>440971.1777700001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>582666.4209800001</v>
+        <v>583462.08461</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>715650.8862899999</v>
+        <v>752403.7857799999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>753067.70822</v>
+        <v>727089.5165999999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>942519.98849</v>
+        <v>957351.59138</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>819088.00963</v>
+        <v>786439.14865</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1243773.92459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1212701.83332</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1194013.015</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>281996.55828</v>
+        <v>260666.26942</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>292022.63932</v>
+        <v>281268.38793</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>353084.11855</v>
+        <v>337378.20489</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>393885.76158</v>
+        <v>359282.48464</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>352509.69596</v>
+        <v>346409.06752</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>458977.03609</v>
+        <v>456700.7069</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>568251.07452</v>
+        <v>586958.36274</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>607034.83292</v>
+        <v>585542.75442</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>733704.73392</v>
+        <v>755787.6538</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>671243.0978300001</v>
+        <v>643153.22028</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>986512.4578999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>976515.3503099999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>992617.697</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3850.39814</v>
+        <v>3775.52047</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>4215.218720000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>32115.82854</v>
+        <v>32094.36471</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>31115.21107</v>
+        <v>29192.12344</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>34248.27254999999</v>
+        <v>29670.51596</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>42787.4584</v>
+        <v>39563.93197</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>66564.33471</v>
+        <v>88016.66103</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>51959.20112</v>
+        <v>46916.51355999999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>65797.99122</v>
+        <v>60640.03517</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>34405.58315999999</v>
+        <v>30211.1324</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>46705.427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>46583.12412</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>36398.465</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>105978.76458</v>
+        <v>100307.54992</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>66757.56843</v>
+        <v>61971.02064</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>45158.08825</v>
+        <v>38406.11667</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>87214.41356</v>
+        <v>69184.62539</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>79486.91381</v>
+        <v>74011.54592000002</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>93327.01372999999</v>
+        <v>99346.34789999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>109650.54685</v>
+        <v>111323.57377</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>121467.32999</v>
+        <v>118895.6066</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>189923.90119</v>
+        <v>218590.05878</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>136066.2674</v>
+        <v>110484.18076</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>214238.13518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>204751.87043</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>316355.059</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>171940.19044</v>
+        <v>156367.49391</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>220758.45217</v>
+        <v>214790.74857</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>274675.04897</v>
+        <v>265753.46726</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>275504.4960800001</v>
+        <v>260857.695</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>238320.59941</v>
+        <v>242273.09545</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>315570.7888400001</v>
+        <v>310477.86001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>390247.07227</v>
+        <v>385687.82519</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>430757.79076</v>
+        <v>418528.78049</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>475966.37514</v>
+        <v>474455.7509099999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>499202.53352</v>
+        <v>500889.19337</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>714328.62066</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>713940.0806999999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>635587.7120000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>227.20512</v>
+        <v>215.70512</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>291.4</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1135.15279</v>
+        <v>1124.25625</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>51.64087</v>
+        <v>48.04081</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>453.91019</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7291.77512</v>
+        <v>7312.56702</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1789.12069</v>
+        <v>1930.30275</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2850.51105</v>
+        <v>1201.85377</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2016.46637</v>
+        <v>2101.80894</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>1568.71375</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>11240.27506</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>4276.461</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>67664.08581999999</v>
+        <v>59974.55251000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>66941.44426</v>
+        <v>60436.93458</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>97403.99374999999</v>
+        <v>87162.22733999998</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>89496.12995</v>
+        <v>87793.30608000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>95836.56778999999</v>
+        <v>94562.11024999998</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>123689.38489</v>
+        <v>126761.37771</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>147399.81177</v>
+        <v>165445.42304</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>146032.8753</v>
+        <v>141546.76218</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>208815.25457</v>
+        <v>201563.93758</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>147844.9118</v>
+        <v>143285.92837</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>257261.46669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>236186.48301</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>201395.318</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>55831.0511</v>
+        <v>48927.1302</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>52416.94454</v>
+        <v>46769.08276</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>75672.54897</v>
+        <v>66697.57165</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>81183.63718999999</v>
+        <v>76331.90673</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>78962.19984</v>
+        <v>76423.99153</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>105235.62388</v>
+        <v>108561.06689</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>114966.43344</v>
+        <v>135749.02082</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>113939.43315</v>
+        <v>104223.84639</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>120845.02201</v>
+        <v>126910.53815</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>116423.00917</v>
+        <v>122091.72028</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>170978.15377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>166919.47232</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>128324.638</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1932.32657</v>
@@ -1586,13 +1572,13 @@
         <v>1665.15183</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>835.28364</v>
+        <v>3.29179</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2887.53658</v>
+        <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2486.53338</v>
+        <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>0</v>
@@ -1606,176 +1592,201 @@
       <c r="M21" s="48" t="n">
         <v>1100.63439</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>10016.39263</v>
+        <v>9469.57662</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>5973.026150000001</v>
+        <v>5621.981279999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>18006.60998</v>
+        <v>17291.3606</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>16373.86298</v>
+        <v>14882.58401</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>16048.95162</v>
+        <v>17709.58064</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>24189.89186</v>
+        <v>28529.44848</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>29666.87027</v>
+        <v>49135.57421</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>28730.1488</v>
+        <v>27292.53925</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>36577.93085</v>
+        <v>36703.77368</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>28630.61411</v>
+        <v>34277.68348000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>47961.16136000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>47080.55491000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>46995.816</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>43882.3319</v>
+        <v>37525.22701</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>44311.90304999999</v>
+        <v>39015.08614</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>54288.46030999999</v>
+        <v>46028.73237</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>63144.62238</v>
+        <v>59784.17089</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>62077.96458000001</v>
+        <v>58711.11910000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>78158.19544</v>
+        <v>80031.61841</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>82813.02978999999</v>
+        <v>86613.44660999998</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>85209.28434999999</v>
+        <v>76931.30714000002</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>84175.7478</v>
+        <v>90115.42111</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>87439.56834</v>
+        <v>87461.21008000002</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>121916.35802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>118738.28302</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>81328.822</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>11833.03472</v>
+        <v>11047.42231</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>14524.49972</v>
+        <v>13667.85182</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>21731.44478</v>
+        <v>20464.65569</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>8312.492760000001</v>
+        <v>11461.39935</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>16874.36795</v>
+        <v>18138.11872</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>18453.76101</v>
+        <v>18200.31082</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>32433.37833</v>
+        <v>29696.40222</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>32093.44215000001</v>
+        <v>37322.91579000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>87970.23256</v>
+        <v>74653.39943</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>31421.90263</v>
+        <v>21194.20809</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>86283.31292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>69267.01069</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>73070.67999999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>12693.1169</v>
+        <v>9955.219720000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>16042.26901</v>
+        <v>14272.0619</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>12056.13404</v>
+        <v>10540.81622</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>16016.13063</v>
+        <v>17127.68448</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>20011.00656</v>
+        <v>36292.94347</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>14029.64603</v>
+        <v>31011.85023</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>35279.11662000001</v>
+        <v>46279.77242</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>26334.87135</v>
+        <v>28043.02761</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>24686.60108</v>
+        <v>24483.01985</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>45300.48983</v>
+        <v>41376.56791</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>59427.92712000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>42108.46489</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>48401.285</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>261.79063</v>
+        <v>241.8091</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>268.27905</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>33.7775</v>
+        <v>13.57251</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>0</v>
@@ -1787,7 +1798,7 @@
         <v>264.7461</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>527.1841400000001</v>
+        <v>419.43075</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>32.35308</v>
@@ -1799,16 +1810,21 @@
         <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>762.44902</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>747.335</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>284.541</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>564.22124</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>625.9844499999999</v>
@@ -1823,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>343.09734</v>
+        <v>186.83657</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1701.92102</v>
+        <v>142.24211</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>603.16032</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>481.03429</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1693.69113</v>
+        <v>777.65982</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2357.57729</v>
+        <v>1691.7226</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2575.80586</v>
+        <v>2318.50537</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2483.33062</v>
+        <v>3293.31932</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2505.26078</v>
+        <v>3049.25458</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1937.27658</v>
+        <v>4690.104289999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2299.98324</v>
+        <v>4618.24804</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4143.16468</v>
+        <v>6021.75259</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>6393.07941</v>
+        <v>8063.67046</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>9615.762460000002</v>
+        <v>8215.849819999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>15163.9271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>12902.9417</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>10142.095</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>122.29695</v>
@@ -1901,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>26.80407</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>0</v>
@@ -1910,7 +1936,7 @@
         <v>0.00101</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>169.5</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>7.47083</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>5.116</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>145.28292</v>
@@ -1946,10 +1977,10 @@
         <v>271.07049</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2200.64595</v>
+        <v>2052.57638</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>699.70948</v>
+        <v>670.8329699999999</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>249.70458</v>
@@ -1957,35 +1988,40 @@
       <c r="M30" s="48" t="n">
         <v>442.4784</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>482.725</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>30.29199</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>21.00763999999999</v>
+        <v>20.94623</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>48.46183</v>
+        <v>44.27543</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>28.10314</v>
+        <v>20.3233</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3.95557</v>
+        <v>0.6739400000000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>59.74523</v>
+        <v>59.31296</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>52.43869</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>32.30663</v>
+        <v>9.399940000000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>0.15924</v>
@@ -1994,52 +2030,62 @@
         <v>64.48137</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>10809.203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>237.05918</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>475.2</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>7308.29405</v>
+        <v>6742.67826</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>10201.22075</v>
+        <v>9101.84683</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>6423.72731</v>
+        <v>5764.528439999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>9614.39863</v>
+        <v>8838.29968</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>11405.41927</v>
+        <v>27574.55275</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>7885.830400000001</v>
+        <v>19954.6762</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>26510.00114</v>
+        <v>34341.87798</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9191.701590000001</v>
+        <v>7807.91649</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>7771.84205</v>
+        <v>6002.9929</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>25649.03366</v>
+        <v>23084.47813</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>16940.04503</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>12468.82611</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>21868.934</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>160.69532</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>55.17</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,104 +2164,119 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2567.24799</v>
+        <v>1895.20068</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2206.07202</v>
+        <v>2201.15493</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2783.95738</v>
+        <v>2209.53031</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3807.78328</v>
+        <v>4893.22722</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4765.914</v>
+        <v>4338.00526</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2763.13877</v>
+        <v>5107.16657</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3638.91453</v>
+        <v>6156.86099</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>10045.19593</v>
+        <v>11429.52564</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>8832.1713</v>
+        <v>8925.224679999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>9492.496210000001</v>
+        <v>9533.042459999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>14660.62413</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>14660.62406</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>15087.504</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>12291.09668</v>
+        <v>10729.67135</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>11409.21578</v>
+        <v>10857.68478</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>14626.78614</v>
+        <v>10800.80302</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>9903.36282</v>
+        <v>9440.20406</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>15903.00571</v>
+        <v>41165.95607</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>11625.87488</v>
+        <v>29277.13826</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>32472.20036</v>
+        <v>56313.88798</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>14572.79603</v>
+        <v>11237.12869</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>17821.72859</v>
+        <v>15298.71145</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>28600.64953</v>
+        <v>24355.35607</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>18899.06026</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>17083.02514</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>21908.251</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>261.88003</v>
+        <v>169.28637</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>66.41681</v>
+        <v>27.94276</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>35.39241000000001</v>
+        <v>33.52041000000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>127.52898</v>
+        <v>41.83834</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>122.40812</v>
+        <v>65.068</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>378.05735</v>
@@ -2230,23 +2296,28 @@
       <c r="M37" s="48" t="n">
         <v>1278.89388</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>2387.43</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2692.48028</v>
+        <v>2211.2213</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3160.080939999999</v>
+        <v>3093.76972</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>652.4393</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>649.25125</v>
+        <v>667.67381</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>406.558</v>
@@ -2258,10 +2329,10 @@
         <v>2733.7168</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2286.06006</v>
+        <v>2137.24681</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3152.78242</v>
+        <v>3041.04293</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>2014.0346</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>2662.69865</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3589.237</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2285,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>279.80711</v>
+        <v>279.89297</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>0.00723</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>56.5733</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>8659.17849</v>
+        <v>8092.66346</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7894.16677</v>
+        <v>7447.42171</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>12386.41444</v>
+        <v>8613.430980000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8176.44377</v>
+        <v>7776.7707</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>14899.17159</v>
+        <v>40233.03679000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>7374.19709</v>
+        <v>25106.80947</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>26850.31514</v>
+        <v>50652.04401000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>7731.308199999999</v>
+        <v>5763.19448</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>10245.14782</v>
+        <v>8161.609</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>24422.69546</v>
+        <v>20177.402</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10932.38058</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9106.151689999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>10420.685</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>155.42577</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>62.281</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>677.55788</v>
+        <v>256.50022</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>288.5508400000001</v>
+        <v>288.55017</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1552.53999</v>
+        <v>1501.41233</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>669.85456</v>
+        <v>673.5510899999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>425.81773</v>
+        <v>412.24301</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3255.925000000001</v>
+        <v>3174.576</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2399.06065</v>
+        <v>2439.0194</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3820.91549</v>
+        <v>2602.17512</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3863.71118</v>
+        <v>3535.97235</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>1992.36193</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3813.08808</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3823.28185</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5447.576</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>8538.04458</v>
+        <v>6288.376240000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6005.960470000001</v>
+        <v>5073.57021</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>10502.36765</v>
+        <v>8824.81129</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>10518.54276</v>
+        <v>9035.126109999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>8598.296269999999</v>
+        <v>7188.37725</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>12324.87176</v>
+        <v>9068.770199999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>19584.63681</v>
+        <v>15322.95505</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>25366.77049</v>
+        <v>17001.92655</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>23453.14851</v>
+        <v>19296.81631</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>29249.04914</v>
+        <v>28043.46292</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>39106.29628</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>37065.96711999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>27638.892</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>8538.04458</v>
+        <v>6288.376240000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6005.19679</v>
+        <v>5072.80653</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>10502.36765</v>
+        <v>8824.81129</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>9741.24071</v>
+        <v>8304.3987</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>8532.7806</v>
+        <v>7188.37725</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>12324.87176</v>
+        <v>9068.770199999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>19427.68957</v>
+        <v>15166.00781</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>23235.37631</v>
+        <v>17001.92655</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>20200.27515</v>
+        <v>16044.31925</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>26269.84149</v>
+        <v>25064.25527</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>39085.29628</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>37044.96711999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>27327.717</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2558,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>777.30205</v>
+        <v>730.7274100000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>65.51567</v>
+        <v>0</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>0</v>
@@ -2570,10 +2681,10 @@
         <v>156.94724</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2131.39418</v>
+        <v>0</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3252.87336</v>
+        <v>3252.49706</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>2979.20765</v>
@@ -2581,95 +2692,110 @@
       <c r="M46" s="48" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>311.175</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3697.01036</v>
+        <v>3984.59444</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>13151.59248</v>
+        <v>12008.65873</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>8658.425029999999</v>
+        <v>11379.8576</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3906.717810000001</v>
+        <v>10113.75366</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>12384.07253</v>
+        <v>6076.728870000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>8532.660399999999</v>
+        <v>10866.25259</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>15655.65778</v>
+        <v>4339.331610000003</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>18488.74698</v>
+        <v>37126.88815999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>71381.95653999998</v>
+        <v>64540.89152</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>18872.69379</v>
+        <v>10171.95701</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>87705.8835</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>57226.48331999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>71924.822</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1696.00545</v>
+        <v>954.36448</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3521.4294</v>
+        <v>3159.66508</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5270.59151</v>
+        <v>3868.5095</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3580.92939</v>
+        <v>2363.63048</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3198.82923</v>
+        <v>2257.26895</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>6401.33958</v>
+        <v>5600.82954</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>12114.38389</v>
+        <v>9575.943569999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>15818.04082</v>
+        <v>6781.12575</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>14159.1366</v>
+        <v>14732.22132</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>9726.40466</v>
+        <v>9698.539000000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>12138.98415</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>11783.93877</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>22736.117</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>7.15861</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>26.14705</v>
+        <v>26.13989</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>75.83467</v>
@@ -2678,16 +2804,16 @@
         <v>908.1829</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>33.26236</v>
+        <v>95.87321</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>5</v>
+        <v>21.43508</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>49.50715</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0.08501</v>
+        <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1.04971</v>
@@ -2696,94 +2822,109 @@
         <v>56.41696</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>101.44779</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>102.94216</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>106.554</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1688.84684</v>
+        <v>947.20587</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3495.28235</v>
+        <v>3133.52519</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5194.75684</v>
+        <v>3792.67483</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2672.74649</v>
+        <v>1455.44758</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3165.56687</v>
+        <v>2161.39574</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>6396.33958</v>
+        <v>5579.39446</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>12064.87674</v>
+        <v>9526.43642</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>15817.95581</v>
+        <v>6781.12575</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>14158.08689</v>
+        <v>14731.17161</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9669.9877</v>
+        <v>9642.12204</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>12037.53636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>11680.99661</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>22629.563</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3481.88705</v>
+        <v>2843.98742</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5752.39061</v>
+        <v>5635.26909</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>29703.02254</v>
+        <v>24971.76651</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7760.17351</v>
+        <v>6403.37819</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>13734.60705</v>
+        <v>17754.36063</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>18118.10217</v>
+        <v>18047.1176</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>17642.2717</v>
+        <v>16193.48861</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>20788.1648</v>
+        <v>20299.15226</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>21276.11765</v>
+        <v>21005.94772</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>14058.03327</v>
+        <v>13915.62373</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6028.30153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5708.70188</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7245.274</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>32.5197</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>34.81501</v>
@@ -2798,16 +2939,16 @@
         <v>185</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>37.5</v>
+        <v>96.29120999999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>69.13105</v>
+        <v>519.56508</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>126.38565</v>
+        <v>405.45733</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>0</v>
+        <v>58.90068</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>149.1</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>46.645</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>104.72661</v>
+        <v>92.50364</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>147.4322</v>
+        <v>147.36024</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>431.54303</v>
+        <v>431.49603</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1054.40341</v>
+        <v>186.12562</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1616.20812</v>
+        <v>1736.35031</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>221.45218</v>
+        <v>244.11995</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>215.61026</v>
+        <v>292.10085</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>84.85392999999999</v>
+        <v>80.57466000000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>138.54445</v>
+        <v>132.93511</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>446.14658</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>34.49409000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>35.42369</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>87.09399999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3344.64074</v>
+        <v>2751.48378</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5570.1434</v>
+        <v>5453.09384</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>29242.58565</v>
+        <v>24511.37662</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6705.7701</v>
+        <v>6217.252570000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>11933.39893</v>
+        <v>15833.01032</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>17859.14999</v>
+        <v>17706.70644</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17357.53039</v>
+        <v>15381.82268</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>20576.92522</v>
+        <v>19813.12027</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>21137.5732</v>
+        <v>20814.11193</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>13462.78669</v>
+        <v>13320.37715</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5993.80744</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>5673.278189999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>7111.535</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1911.128759999999</v>
+        <v>2094.9715</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>10920.63127</v>
+        <v>9533.054719999998</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-15774.006</v>
+        <v>-9723.39941</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-272.5263099999987</v>
+        <v>6074.005950000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1848.294709999999</v>
+        <v>-9420.362810000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-3184.102190000001</v>
+        <v>-1580.035469999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>10127.76997</v>
+        <v>-2278.21343</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>13518.623</v>
+        <v>23608.86165</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>64264.97549</v>
+        <v>58267.16512000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>14541.06518</v>
+        <v>5954.872280000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>93816.56612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>63301.72021</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>87415.66499999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3652.09461</v>
+        <v>2813.970440000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4027.5148</v>
+        <v>3484.75783</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6068.07626</v>
+        <v>4776.642620000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4909.24941</v>
+        <v>4162.67704</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3381.87448</v>
+        <v>3325.058649999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4736.96895</v>
+        <v>4921.89755</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7133.182589999999</v>
+        <v>6811.599609999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>10076.69265</v>
+        <v>9166.183630000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>11252.70983</v>
+        <v>10065.89303</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>10580.97456</v>
+        <v>10254.98603</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>21007.72081</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>16052.00178</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>17276.724</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1740.965850000001</v>
+        <v>-718.9989400000004</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>6893.116470000001</v>
+        <v>6048.29689</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-21842.08226</v>
+        <v>-14500.04203</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-5181.775720000001</v>
+        <v>1911.32891</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-1533.579770000001</v>
+        <v>-12745.42146</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-7921.071140000001</v>
+        <v>-6501.933020000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2994.58738</v>
+        <v>-9089.813039999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3441.930350000001</v>
+        <v>14442.67802</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>53012.26566</v>
+        <v>48201.27209000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3960.090620000001</v>
+        <v>-4300.113749999998</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>72808.84531</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>47249.71843</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>70138.94100000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>88</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>